--- a/opt-status.xlsx
+++ b/opt-status.xlsx
@@ -647,12 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,9 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,15 +678,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -705,28 +687,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,6 +737,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,13 +1078,13 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="0.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
@@ -1094,444 +1094,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="H6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="2:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>68</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>82</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>75</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>87</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>92</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="5">
+      <c r="E11" s="16"/>
+      <c r="F11" s="3">
         <v>94</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
         <v>86</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="5">
+      <c r="E12" s="16"/>
+      <c r="F12" s="3">
         <v>89</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
         <v>65</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="5">
+      <c r="E13" s="16"/>
+      <c r="F13" s="3">
         <v>89</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <v>94</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="5">
+      <c r="E14" s="16"/>
+      <c r="F14" s="3">
         <v>96</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
         <v>94</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="5">
+      <c r="E15" s="16"/>
+      <c r="F15" s="3">
         <v>95</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
         <v>95</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="5">
+      <c r="E16" s="16"/>
+      <c r="F16" s="3">
         <v>96</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
         <v>93</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="5">
+      <c r="E17" s="16"/>
+      <c r="F17" s="3">
         <v>83</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
         <v>93</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="5">
+      <c r="E18" s="16"/>
+      <c r="F18" s="3">
         <v>95</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5" t="s">
+      <c r="N18" s="2"/>
+      <c r="O18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <v>92</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13">
+      <c r="E19" s="12"/>
+      <c r="F19" s="11">
         <v>94</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13" t="s">
+      <c r="N19" s="10"/>
+      <c r="O19" s="11" t="s">
         <v>61</v>
       </c>
     </row>
